--- a/data/trans_camb/P35A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P35A_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,51</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,52</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>11,04</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,37</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,33</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 25,71</t>
+          <t>2,23; 23,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 23,2</t>
+          <t>0,0; 15,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 26,05</t>
+          <t>2,01; 21,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 21,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 18,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 12,26</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,09</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 10,37</t>
         </is>
       </c>
     </row>
@@ -677,12 +738,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>309,22%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>196,35%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -692,17 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>408,71%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>178,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -715,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,26; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -735,10 +811,25 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,16; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,41</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,38</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,77</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,1</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 14,8</t>
+          <t>0,02; 15,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 13,43</t>
+          <t>-4,2; 10,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 27,6</t>
+          <t>0,73; 16,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 7,03</t>
+          <t>-1,73; 6,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 15,99</t>
+          <t>-3,6; 3,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 9,46</t>
+          <t>-0,74; 7,87</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 9,13</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 6,93</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 10,67</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51,37%</t>
+          <t>91,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>267,28%</t>
+          <t>106,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>84,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>86,3%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>131,8%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>93,44%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>38,77%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>119,4%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 174,2</t>
+          <t>-4,1; 348,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 157,01</t>
+          <t>-38,47; 231,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 1889,0</t>
+          <t>-2,88; 362,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,94; 407,2</t>
+          <t>-55,46; 767,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 216,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,37; 138,77</t>
+          <t>-35,74; 853,32</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13,7; 282,14</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-30,5; 211,07</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22,23; 313,7</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>6,25</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,48</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 8,44</t>
+          <t>-14,1; -0,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 15,27</t>
+          <t>-7,82; 10,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 6,87</t>
+          <t>-8,55; 9,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 11,83</t>
+          <t>-6,52; 5,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 4,8</t>
+          <t>-4,61; 8,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 10,58</t>
+          <t>-1,22; 14,21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; 1,03</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 7,25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 9,61</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,2%</t>
+          <t>-57,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>-2,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,79%</t>
+          <t>-10,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,87%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>74,96%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-35,43%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>33,22%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,2; 75,49</t>
+          <t>-88,43; 3,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 139,58</t>
+          <t>-49,25; 147,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,22; 94,74</t>
+          <t>-56,88; 134,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,73; 175,93</t>
+          <t>-60,71; 101,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 49,34</t>
+          <t>-43,2; 143,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 105,26</t>
+          <t>-18,75; 243,88</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-66,31; 16,98</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-25,81; 97,74</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-17,31; 133,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 10,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 10,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 12,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 6,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 9,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 7,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 97,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 96,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 247,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 144,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,24; 106,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 89,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,95</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5,38</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 6,79</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 8,14</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 10,96</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 4,08</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 3,83</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 6,67</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 4,38</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 4,77</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 7,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>29,56%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>35,72%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>65,22%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>70,22%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>29,11%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>69,54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-23,91; 113,49</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-18,72; 128,34</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 175,79</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-39,06; 124,69</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-40,58; 125,15</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 200,5</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-15,27; 85,55</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-12,88; 94,42</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>15,17; 146,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
